--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsimasten/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/siasep.devapp/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C24024-A0E0-6F43-982F-E42A362FC195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF24ED-528E-444E-B5A1-06C200D1883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>administrator</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>Account Manajemen System</t>
@@ -315,14 +312,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -634,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,23 +693,20 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -741,13 +735,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -759,16 +753,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -779,19 +773,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>1</v>
@@ -808,22 +802,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="3" t="b">
         <v>1</v>
@@ -840,22 +834,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="3" t="b">
         <v>0</v>
@@ -872,22 +866,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>0</v>
@@ -904,22 +898,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
@@ -936,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
@@ -968,23 +962,23 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
@@ -992,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1003,23 +997,23 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
@@ -1027,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1038,23 +1032,23 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
       <c r="H10" s="3" t="b">
         <v>0</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1073,23 +1067,23 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="3" t="b">
         <v>0</v>
       </c>
@@ -1097,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1108,23 +1102,23 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
       <c r="H12" s="3" t="b">
         <v>0</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1143,23 +1137,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
       <c r="H13" s="3" t="b">
         <v>0</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1178,22 +1172,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="3" t="b">
         <v>1</v>
@@ -1210,23 +1204,23 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>74</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
       <c r="H15" s="3" t="b">
         <v>0</v>
       </c>
@@ -1234,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1245,22 +1239,22 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
       </c>
       <c r="H16" s="3" t="b">
         <v>1</v>
@@ -1293,13 +1287,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,10 +1312,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,10 +1323,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1340,10 +1334,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1351,10 +1345,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1362,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1373,10 +1367,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1384,10 +1378,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1395,10 +1389,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1406,10 +1400,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1417,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1428,10 +1422,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1439,10 +1433,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,10 +1444,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1461,10 +1455,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1488,10 +1482,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,13 +1525,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1545,10 +1539,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,10 +1550,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,10 +1561,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,10 +1572,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,10 +1583,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,10 +1594,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,10 +1605,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1616,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,10 +1627,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,10 +1638,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,10 +1649,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,10 +1660,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,10 +1682,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,10 +1693,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1727,16 +1721,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,13 +1738,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,13 +1752,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,13 +1780,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,13 +1808,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,13 +1822,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,13 +1836,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,13 +1850,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,13 +1864,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,13 +1878,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,13 +1892,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,13 +1906,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,13 +1920,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1940,13 +1934,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/siasep.devapp/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF24ED-528E-444E-B5A1-06C200D1883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5262D1CC-F59C-104A-9206-BE11A920C84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -120,184 +120,184 @@
     <t>role</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>system-auditor</t>
-  </si>
-  <si>
     <t>verified_user</t>
   </si>
   <si>
-    <t>auditor</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>system-operator</t>
-  </si>
-  <si>
-    <t>admin_panel_settings</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>Third Party</t>
-  </si>
-  <si>
     <t>system-thirdparty</t>
   </si>
   <si>
-    <t>apps</t>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>system-module</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>system-administrator</t>
+  </si>
+  <si>
+    <t>supervisor_account</t>
+  </si>
+  <si>
+    <t>module/:module/administrator</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>system-page</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>module/:module/page</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>system-permission</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>page/:page/permission</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>system-ability</t>
+  </si>
+  <si>
+    <t>group_work</t>
+  </si>
+  <si>
+    <t>module/:module/ability</t>
+  </si>
+  <si>
+    <t>Ability Page</t>
+  </si>
+  <si>
+    <t>system-abilitypage</t>
+  </si>
+  <si>
+    <t>ability/:ability/page</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>system-license</t>
+  </si>
+  <si>
+    <t>ability/:ability/license</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>system-user</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>system-token</t>
+  </si>
+  <si>
+    <t>nfc</t>
+  </si>
+  <si>
+    <t>user/:user/token</t>
+  </si>
+  <si>
+    <t>Laporan</t>
+  </si>
+  <si>
+    <t>system-report</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>view, create, show, update, delete, restore, destroy</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>superadmin, administrator</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>view, show, update, delete, restore, destroy</t>
+  </si>
+  <si>
+    <t>Oauth</t>
   </si>
   <si>
     <t>thirdparty</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>system-module</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>system-administrator</t>
-  </si>
-  <si>
-    <t>supervisor_account</t>
-  </si>
-  <si>
-    <t>module/:module/administrator</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>system-page</t>
-  </si>
-  <si>
-    <t>explore</t>
-  </si>
-  <si>
-    <t>module/:module/page</t>
-  </si>
-  <si>
-    <t>Permission</t>
-  </si>
-  <si>
-    <t>system-permission</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>page/:page/permission</t>
-  </si>
-  <si>
-    <t>Ability</t>
-  </si>
-  <si>
-    <t>system-ability</t>
-  </si>
-  <si>
-    <t>group_work</t>
-  </si>
-  <si>
-    <t>module/:module/ability</t>
-  </si>
-  <si>
-    <t>Ability Page</t>
-  </si>
-  <si>
-    <t>system-abilitypage</t>
-  </si>
-  <si>
-    <t>ability/:ability/page</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>system-license</t>
-  </si>
-  <si>
-    <t>ability/:ability/license</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>system-user</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>system-token</t>
-  </si>
-  <si>
-    <t>nfc</t>
-  </si>
-  <si>
-    <t>user/:user/token</t>
-  </si>
-  <si>
-    <t>Laporan</t>
-  </si>
-  <si>
-    <t>system-report</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>permissions</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>view, create, show, update, delete, restore, destroy</t>
-  </si>
-  <si>
-    <t>superadmin</t>
-  </si>
-  <si>
-    <t>superadmin, administrator</t>
-  </si>
-  <si>
-    <t>permission</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,16 +343,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,23 +836,23 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="G4" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="H4" s="3" t="b">
         <v>0</v>
@@ -866,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>0</v>
@@ -898,28 +901,31 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -930,28 +936,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -962,23 +971,23 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
@@ -986,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -997,23 +1006,23 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1032,23 +1041,23 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="3" t="b">
         <v>0</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1067,22 +1076,22 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="b">
         <v>0</v>
@@ -1091,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1102,31 +1111,28 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
       <c r="H12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>59</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1137,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3" t="b">
         <v>0</v>
@@ -1172,23 +1178,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" s="3" t="b">
         <v>1</v>
       </c>
@@ -1196,73 +1202,6 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1273,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,7 +1243,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,7 +1254,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,10 +1273,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,10 +1306,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,10 +1317,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,10 +1328,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,10 +1339,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,10 +1350,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,10 +1361,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,32 +1372,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1511,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -1542,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1553,7 +1470,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,7 +1481,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1572,10 +1489,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1594,10 +1511,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,10 +1522,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1616,10 +1533,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,10 +1544,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1638,10 +1555,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1649,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,10 +1577,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,32 +1588,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,13 +1619,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1741,10 +1636,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1755,10 +1650,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1769,10 +1664,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1675,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1717,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1731,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1745,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1759,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1773,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,13 +1787,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,41 +1801,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
